--- a/data/project_timelines.xlsx
+++ b/data/project_timelines.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/david/r_repositories/phd_project/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE423BB7-9435-4647-B418-58639E9726CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DCC671B-8A87-664A-8FBE-B87642A69698}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="project_timelines" sheetId="1" r:id="rId1"/>
@@ -185,9 +185,6 @@
     <t>2.2.4. Analysis plan</t>
   </si>
   <si>
-    <t>2.2.5. Draft manuscript</t>
-  </si>
-  <si>
     <t>2.2.6. Final analysis</t>
   </si>
   <si>
@@ -236,9 +233,6 @@
     <t>2.1.4. Analysis plan (speciation)</t>
   </si>
   <si>
-    <t>2.1.5. Draft manuscript</t>
-  </si>
-  <si>
     <t>2.1.6. Final analysis</t>
   </si>
   <si>
@@ -252,6 +246,12 @@
   </si>
   <si>
     <t>2.2.3. Lab work - SL</t>
+  </si>
+  <si>
+    <t>2.2.5. Draft manuscript (interim analysis)</t>
+  </si>
+  <si>
+    <t>2.1.5. Draft manuscript (interim analysis)</t>
   </si>
 </sst>
 </file>
@@ -1098,8 +1098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D69"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D69" sqref="D69"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1436,7 +1436,7 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C24" s="1">
         <v>44501</v>
@@ -1464,7 +1464,7 @@
         <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C26" s="1">
         <v>44359</v>
@@ -1478,7 +1478,7 @@
         <v>22</v>
       </c>
       <c r="B27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C27" s="1">
         <v>44501</v>
@@ -1492,7 +1492,7 @@
         <v>22</v>
       </c>
       <c r="B28" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C28" s="1">
         <v>44501</v>
@@ -1506,7 +1506,7 @@
         <v>22</v>
       </c>
       <c r="B29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C29" s="1">
         <v>44593</v>
@@ -1520,13 +1520,13 @@
         <v>22</v>
       </c>
       <c r="B30" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C30" s="1">
         <v>44621</v>
       </c>
       <c r="D30" s="1">
-        <v>44713</v>
+        <v>44805</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -1534,13 +1534,13 @@
         <v>22</v>
       </c>
       <c r="B31" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C31" s="1">
-        <v>44713</v>
+        <v>45078</v>
       </c>
       <c r="D31" s="1">
-        <v>44774</v>
+        <v>45108</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -1548,13 +1548,13 @@
         <v>22</v>
       </c>
       <c r="B32" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C32" s="1">
-        <v>44743</v>
+        <v>45078</v>
       </c>
       <c r="D32" s="1">
-        <v>44835</v>
+        <v>45139</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -1562,13 +1562,13 @@
         <v>22</v>
       </c>
       <c r="B33" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C33" s="1">
-        <v>44835</v>
+        <v>45139</v>
       </c>
       <c r="D33" s="1">
-        <v>44866</v>
+        <v>45170</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -1604,7 +1604,7 @@
         <v>29</v>
       </c>
       <c r="B36" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C36" s="1">
         <v>44501</v>
@@ -1632,13 +1632,13 @@
         <v>29</v>
       </c>
       <c r="B38" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="C38" s="1">
         <v>44774</v>
       </c>
       <c r="D38" s="1">
-        <v>44835</v>
+        <v>44896</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -1646,13 +1646,13 @@
         <v>29</v>
       </c>
       <c r="B39" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C39" s="1">
-        <v>44774</v>
+        <v>45078</v>
       </c>
       <c r="D39" s="1">
-        <v>44835</v>
+        <v>45108</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -1660,13 +1660,13 @@
         <v>29</v>
       </c>
       <c r="B40" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C40" s="1">
-        <v>44805</v>
+        <v>45078</v>
       </c>
       <c r="D40" s="1">
-        <v>44866</v>
+        <v>45139</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -1674,13 +1674,13 @@
         <v>29</v>
       </c>
       <c r="B41" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C41" s="1">
-        <v>44866</v>
+        <v>45139</v>
       </c>
       <c r="D41" s="1">
-        <v>44896</v>
+        <v>45170</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -1688,7 +1688,7 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C42" s="1">
         <v>44348</v>
@@ -1702,7 +1702,7 @@
         <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C43" s="1">
         <v>44409</v>
@@ -1744,7 +1744,7 @@
         <v>11</v>
       </c>
       <c r="B46" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C46" s="1">
         <v>44593</v>
@@ -1870,7 +1870,7 @@
         <v>12</v>
       </c>
       <c r="B55" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C55" s="1">
         <v>44621</v>
@@ -1884,7 +1884,7 @@
         <v>12</v>
       </c>
       <c r="B56" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C56" s="1">
         <v>44713</v>
@@ -1898,7 +1898,7 @@
         <v>12</v>
       </c>
       <c r="B57" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C57" s="1">
         <v>44774</v>
@@ -1982,7 +1982,7 @@
         <v>13</v>
       </c>
       <c r="B63" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C63" s="1">
         <v>44958</v>
@@ -1996,7 +1996,7 @@
         <v>13</v>
       </c>
       <c r="B64" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C64" s="1">
         <v>45017</v>
@@ -2010,7 +2010,7 @@
         <v>13</v>
       </c>
       <c r="B65" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C65" s="1">
         <v>45078</v>
@@ -2072,7 +2072,7 @@
         <v>44927</v>
       </c>
       <c r="D69" s="1">
-        <v>45139</v>
+        <v>45170</v>
       </c>
     </row>
   </sheetData>
@@ -2085,8 +2085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2274,10 +2274,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" t="s">
         <v>67</v>
-      </c>
-      <c r="B17" t="s">
-        <v>68</v>
       </c>
       <c r="C17" s="1">
         <v>44392</v>
@@ -2285,13 +2285,13 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B18" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="1">
-        <v>44866</v>
+        <v>45170</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -2307,18 +2307,18 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="1">
-        <v>44896</v>
+        <v>45170</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>10</v>
@@ -2351,7 +2351,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>8</v>
@@ -2362,7 +2362,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>8</v>

--- a/data/project_timelines.xlsx
+++ b/data/project_timelines.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/david/r_repositories/phd_project/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DCC671B-8A87-664A-8FBE-B87642A69698}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64F2F97A-5A62-6241-B0CF-C4FD6FED10C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="project_timelines" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="77">
   <si>
     <t>activity</t>
   </si>
@@ -1098,8 +1098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="D66" sqref="D66"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="D49" activeCellId="1" sqref="B49 D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1218,7 +1218,7 @@
         <v>44378</v>
       </c>
       <c r="D8" s="1">
-        <v>44470</v>
+        <v>44652</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -1229,10 +1229,10 @@
         <v>21</v>
       </c>
       <c r="C9" s="1">
-        <v>44501</v>
+        <v>44652</v>
       </c>
       <c r="D9" s="1">
-        <v>44531</v>
+        <v>44652</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -1439,7 +1439,7 @@
         <v>73</v>
       </c>
       <c r="C24" s="1">
-        <v>44501</v>
+        <v>44652</v>
       </c>
       <c r="D24" s="1">
         <v>45078</v>
@@ -1481,10 +1481,10 @@
         <v>66</v>
       </c>
       <c r="C27" s="1">
-        <v>44501</v>
+        <v>44665</v>
       </c>
       <c r="D27" s="1">
-        <v>44514</v>
+        <v>44679</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -1495,10 +1495,10 @@
         <v>68</v>
       </c>
       <c r="C28" s="1">
-        <v>44501</v>
+        <v>44638</v>
       </c>
       <c r="D28" s="1">
-        <v>44514</v>
+        <v>44653</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -1523,7 +1523,7 @@
         <v>76</v>
       </c>
       <c r="C30" s="1">
-        <v>44621</v>
+        <v>44682</v>
       </c>
       <c r="D30" s="1">
         <v>44805</v>
@@ -1593,10 +1593,10 @@
         <v>52</v>
       </c>
       <c r="C35" s="1">
-        <v>44501</v>
+        <v>44638</v>
       </c>
       <c r="D35" s="1">
-        <v>44514</v>
+        <v>44653</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -1607,10 +1607,10 @@
         <v>74</v>
       </c>
       <c r="C36" s="1">
-        <v>44501</v>
+        <v>44665</v>
       </c>
       <c r="D36" s="1">
-        <v>44514</v>
+        <v>44679</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -1817,10 +1817,10 @@
         <v>36</v>
       </c>
       <c r="C51" s="1">
-        <v>44470</v>
+        <v>44713</v>
       </c>
       <c r="D51" s="1">
-        <v>44531</v>
+        <v>44835</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
@@ -1831,10 +1831,10 @@
         <v>37</v>
       </c>
       <c r="C52" s="1">
-        <v>44501</v>
+        <v>44774</v>
       </c>
       <c r="D52" s="1">
-        <v>44562</v>
+        <v>44835</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
@@ -1845,10 +1845,10 @@
         <v>38</v>
       </c>
       <c r="C53" s="1">
-        <v>44562</v>
+        <v>44774</v>
       </c>
       <c r="D53" s="1">
-        <v>44621</v>
+        <v>44835</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -1859,7 +1859,7 @@
         <v>39</v>
       </c>
       <c r="C54" s="1">
-        <v>44621</v>
+        <v>44835</v>
       </c>
       <c r="D54" s="1">
         <v>45078</v>
@@ -1873,10 +1873,10 @@
         <v>60</v>
       </c>
       <c r="C55" s="1">
-        <v>44621</v>
+        <v>44835</v>
       </c>
       <c r="D55" s="1">
-        <v>44682</v>
+        <v>44866</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
@@ -1887,10 +1887,10 @@
         <v>61</v>
       </c>
       <c r="C56" s="1">
-        <v>44713</v>
+        <v>44896</v>
       </c>
       <c r="D56" s="1">
-        <v>44774</v>
+        <v>44958</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
@@ -1901,10 +1901,10 @@
         <v>62</v>
       </c>
       <c r="C57" s="1">
-        <v>44774</v>
+        <v>44682</v>
       </c>
       <c r="D57" s="1">
-        <v>44805</v>
+        <v>45078</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
@@ -2083,10 +2083,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2192,7 +2192,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="1">
-        <v>44531</v>
+        <v>44652</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -2263,53 +2263,53 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="1">
-        <v>44392</v>
+        <v>44501</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="C17" s="1">
-        <v>44392</v>
+        <v>44593</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>72</v>
+        <v>28</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C18" s="1">
-        <v>45170</v>
+        <v>44392</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>50</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>10</v>
+        <v>66</v>
+      </c>
+      <c r="B19" t="s">
+        <v>67</v>
       </c>
       <c r="C19" s="1">
-        <v>44409</v>
+        <v>44392</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>56</v>
-      </c>
-      <c r="B20" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="1">
@@ -2318,79 +2318,134 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C21" s="1">
-        <v>44378</v>
+        <v>44409</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C22" s="1">
-        <v>44105</v>
+        <v>45170</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C23" s="1">
-        <v>44105</v>
+        <v>44378</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C24" s="1">
-        <v>44805</v>
+        <v>44105</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C25" s="1">
-        <v>45139</v>
+        <v>44105</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C26" s="1">
-        <v>44470</v>
+        <v>44805</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C27" s="1">
+        <v>45139</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="1">
+        <v>44470</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>48</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="1">
         <v>44593</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="1">
+        <v>44440</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="1">
+        <v>44562</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="1">
+        <v>44440</v>
       </c>
     </row>
   </sheetData>

--- a/data/project_timelines.xlsx
+++ b/data/project_timelines.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/david/r_repositories/phd_project/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ucbtds4\R_Repositories\phd_project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64F2F97A-5A62-6241-B0CF-C4FD6FED10C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F85D594-EC06-42BF-9618-5ECD994863E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="project_timelines" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="78">
   <si>
     <t>activity</t>
   </si>
@@ -50,9 +50,6 @@
     <t>O</t>
   </si>
   <si>
-    <t>1. Scoping review (Rodent trapping)</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
@@ -252,6 +249,12 @@
   </si>
   <si>
     <t>2.1.5. Draft manuscript (interim analysis)</t>
+  </si>
+  <si>
+    <t>1. Chapter 2 (Scoping review)</t>
+  </si>
+  <si>
+    <t>1.9. Respond to reviewer comments</t>
   </si>
 </sst>
 </file>
@@ -1096,20 +1099,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D69"/>
+  <dimension ref="A1:D70"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="D49" activeCellId="1" sqref="B49 D49"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:XFD26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="46.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -1123,12 +1126,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" s="1">
         <v>44166</v>
@@ -1137,12 +1140,12 @@
         <v>44231</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" s="1">
         <v>44228</v>
@@ -1151,12 +1154,12 @@
         <v>44256</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" s="1">
         <v>44256</v>
@@ -1165,12 +1168,12 @@
         <v>44317</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" s="1">
         <v>44317</v>
@@ -1179,12 +1182,12 @@
         <v>44378</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" s="1">
         <v>44317</v>
@@ -1193,12 +1196,12 @@
         <v>44378</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" s="1">
         <v>44317</v>
@@ -1207,12 +1210,12 @@
         <v>44378</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="1">
         <v>44378</v>
@@ -1221,558 +1224,558 @@
         <v>44652</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" s="1">
         <v>44652</v>
       </c>
       <c r="D9" s="1">
+        <v>44805</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="1">
+        <v>44855</v>
+      </c>
+      <c r="D10" s="1">
+        <v>44870</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="1">
+        <v>44075</v>
+      </c>
+      <c r="D11" s="1">
+        <v>44197</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="1">
+        <v>44147</v>
+      </c>
+      <c r="D12" s="1">
+        <v>44177</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="1">
+        <v>44166</v>
+      </c>
+      <c r="D13" s="1">
+        <v>44228</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="1">
+        <v>44197</v>
+      </c>
+      <c r="D14" s="1">
+        <v>44256</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="1">
+        <v>44287</v>
+      </c>
+      <c r="D15" s="1">
+        <v>44317</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="1">
+        <v>44359</v>
+      </c>
+      <c r="D16" s="1">
+        <v>44392</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="1">
+        <v>44378</v>
+      </c>
+      <c r="D17" s="1">
+        <v>44409</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="1">
+        <v>44470</v>
+      </c>
+      <c r="D18" s="1">
+        <v>44501</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="1">
+        <v>44562</v>
+      </c>
+      <c r="D19" s="1">
+        <v>44593</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="1">
         <v>44652</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="1">
-        <v>44075</v>
-      </c>
-      <c r="D10" s="1">
-        <v>44197</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="1">
-        <v>44147</v>
-      </c>
-      <c r="D11" s="1">
-        <v>44177</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="D20" s="1">
+        <v>44682</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="1">
-        <v>44166</v>
-      </c>
-      <c r="D12" s="1">
-        <v>44228</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="1">
-        <v>44197</v>
-      </c>
-      <c r="D13" s="1">
-        <v>44256</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="C21" s="1">
+        <v>44743</v>
+      </c>
+      <c r="D21" s="1">
+        <v>44774</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="1">
-        <v>44287</v>
-      </c>
-      <c r="D14" s="1">
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="1">
+        <v>44835</v>
+      </c>
+      <c r="D22" s="1">
+        <v>44866</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="1">
+        <v>44927</v>
+      </c>
+      <c r="D23" s="1">
+        <v>44958</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="1">
+        <v>45017</v>
+      </c>
+      <c r="D24" s="1">
+        <v>45047</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" s="1">
+        <v>44652</v>
+      </c>
+      <c r="D25" s="1">
+        <v>45078</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="1">
         <v>44317</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="1">
+      <c r="D26" s="1">
+        <v>44531</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" s="1">
         <v>44359</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D27" s="1">
         <v>44392</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="1">
-        <v>44378</v>
-      </c>
-      <c r="D16" s="1">
-        <v>44409</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="1">
-        <v>44470</v>
-      </c>
-      <c r="D17" s="1">
-        <v>44501</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="1">
-        <v>44562</v>
-      </c>
-      <c r="D18" s="1">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" s="1">
+        <v>44665</v>
+      </c>
+      <c r="D28" s="1">
+        <v>44679</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" s="1">
+        <v>44638</v>
+      </c>
+      <c r="D29" s="1">
+        <v>44653</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30" s="1">
         <v>44593</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="1">
+      <c r="D30" s="1">
         <v>44652</v>
       </c>
-      <c r="D19" s="1">
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31" t="s">
+        <v>75</v>
+      </c>
+      <c r="C31" s="1">
         <v>44682</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" s="1">
-        <v>44743</v>
-      </c>
-      <c r="D20" s="1">
-        <v>44774</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" s="1">
-        <v>44835</v>
-      </c>
-      <c r="D21" s="1">
-        <v>44866</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" s="1">
-        <v>44927</v>
-      </c>
-      <c r="D22" s="1">
-        <v>44958</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" s="1">
-        <v>45017</v>
-      </c>
-      <c r="D23" s="1">
-        <v>45047</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" t="s">
-        <v>73</v>
-      </c>
-      <c r="C24" s="1">
-        <v>44652</v>
-      </c>
-      <c r="D24" s="1">
-        <v>45078</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>22</v>
-      </c>
-      <c r="B25" t="s">
-        <v>50</v>
-      </c>
-      <c r="C25" s="1">
-        <v>44317</v>
-      </c>
-      <c r="D25" s="1">
-        <v>44531</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>22</v>
-      </c>
-      <c r="B26" t="s">
-        <v>66</v>
-      </c>
-      <c r="C26" s="1">
-        <v>44359</v>
-      </c>
-      <c r="D26" s="1">
-        <v>44392</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>22</v>
-      </c>
-      <c r="B27" t="s">
-        <v>66</v>
-      </c>
-      <c r="C27" s="1">
-        <v>44665</v>
-      </c>
-      <c r="D27" s="1">
-        <v>44679</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>22</v>
-      </c>
-      <c r="B28" t="s">
-        <v>68</v>
-      </c>
-      <c r="C28" s="1">
-        <v>44638</v>
-      </c>
-      <c r="D28" s="1">
-        <v>44653</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>22</v>
-      </c>
-      <c r="B29" t="s">
+      <c r="D31" s="1">
+        <v>44805</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>21</v>
+      </c>
+      <c r="B32" t="s">
         <v>69</v>
-      </c>
-      <c r="C29" s="1">
-        <v>44593</v>
-      </c>
-      <c r="D29" s="1">
-        <v>44652</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>22</v>
-      </c>
-      <c r="B30" t="s">
-        <v>76</v>
-      </c>
-      <c r="C30" s="1">
-        <v>44682</v>
-      </c>
-      <c r="D30" s="1">
-        <v>44805</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>22</v>
-      </c>
-      <c r="B31" t="s">
-        <v>70</v>
-      </c>
-      <c r="C31" s="1">
-        <v>45078</v>
-      </c>
-      <c r="D31" s="1">
-        <v>45108</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>22</v>
-      </c>
-      <c r="B32" t="s">
-        <v>71</v>
       </c>
       <c r="C32" s="1">
         <v>45078</v>
       </c>
       <c r="D32" s="1">
+        <v>45108</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33" s="1">
+        <v>45078</v>
+      </c>
+      <c r="D33" s="1">
         <v>45139</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>22</v>
-      </c>
-      <c r="B33" t="s">
-        <v>72</v>
-      </c>
-      <c r="C33" s="1">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>21</v>
+      </c>
+      <c r="B34" t="s">
+        <v>71</v>
+      </c>
+      <c r="C34" s="1">
         <v>45139</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D34" s="1">
         <v>45170</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>29</v>
-      </c>
-      <c r="B34" t="s">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>28</v>
+      </c>
+      <c r="B35" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35" s="1">
+        <v>44440</v>
+      </c>
+      <c r="D35" s="1">
+        <v>44531</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>28</v>
+      </c>
+      <c r="B36" t="s">
         <v>51</v>
       </c>
-      <c r="C34" s="1">
-        <v>44440</v>
-      </c>
-      <c r="D34" s="1">
-        <v>44531</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>29</v>
-      </c>
-      <c r="B35" t="s">
+      <c r="C36" s="1">
+        <v>44638</v>
+      </c>
+      <c r="D36" s="1">
+        <v>44653</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>28</v>
+      </c>
+      <c r="B37" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" s="1">
+        <v>44665</v>
+      </c>
+      <c r="D37" s="1">
+        <v>44679</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>28</v>
+      </c>
+      <c r="B38" t="s">
         <v>52</v>
       </c>
-      <c r="C35" s="1">
-        <v>44638</v>
-      </c>
-      <c r="D35" s="1">
-        <v>44653</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>29</v>
-      </c>
-      <c r="B36" t="s">
+      <c r="C38" s="1">
+        <v>44593</v>
+      </c>
+      <c r="D38" s="1">
+        <v>44652</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>28</v>
+      </c>
+      <c r="B39" t="s">
         <v>74</v>
       </c>
-      <c r="C36" s="1">
-        <v>44665</v>
-      </c>
-      <c r="D36" s="1">
-        <v>44679</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>29</v>
-      </c>
-      <c r="B37" t="s">
+      <c r="C39" s="1">
+        <v>44774</v>
+      </c>
+      <c r="D39" s="1">
+        <v>44896</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>28</v>
+      </c>
+      <c r="B40" t="s">
         <v>53</v>
-      </c>
-      <c r="C37" s="1">
-        <v>44593</v>
-      </c>
-      <c r="D37" s="1">
-        <v>44652</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>29</v>
-      </c>
-      <c r="B38" t="s">
-        <v>75</v>
-      </c>
-      <c r="C38" s="1">
-        <v>44774</v>
-      </c>
-      <c r="D38" s="1">
-        <v>44896</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>29</v>
-      </c>
-      <c r="B39" t="s">
-        <v>54</v>
-      </c>
-      <c r="C39" s="1">
-        <v>45078</v>
-      </c>
-      <c r="D39" s="1">
-        <v>45108</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>29</v>
-      </c>
-      <c r="B40" t="s">
-        <v>55</v>
       </c>
       <c r="C40" s="1">
         <v>45078</v>
       </c>
       <c r="D40" s="1">
+        <v>45108</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>28</v>
+      </c>
+      <c r="B41" t="s">
+        <v>54</v>
+      </c>
+      <c r="C41" s="1">
+        <v>45078</v>
+      </c>
+      <c r="D41" s="1">
         <v>45139</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>29</v>
-      </c>
-      <c r="B41" t="s">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>28</v>
+      </c>
+      <c r="B42" t="s">
+        <v>55</v>
+      </c>
+      <c r="C42" s="1">
+        <v>45139</v>
+      </c>
+      <c r="D42" s="1">
+        <v>45170</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43" t="s">
         <v>56</v>
       </c>
-      <c r="C41" s="1">
-        <v>45139</v>
-      </c>
-      <c r="D41" s="1">
-        <v>45170</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>11</v>
-      </c>
-      <c r="B42" t="s">
+      <c r="C43" s="1">
+        <v>44348</v>
+      </c>
+      <c r="D43" s="1">
+        <v>44409</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44" t="s">
         <v>57</v>
-      </c>
-      <c r="C42" s="1">
-        <v>44348</v>
-      </c>
-      <c r="D42" s="1">
-        <v>44409</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>11</v>
-      </c>
-      <c r="B43" t="s">
-        <v>58</v>
-      </c>
-      <c r="C43" s="1">
-        <v>44409</v>
-      </c>
-      <c r="D43" s="1">
-        <v>44440</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>11</v>
-      </c>
-      <c r="B44" t="s">
-        <v>30</v>
       </c>
       <c r="C44" s="1">
         <v>44409</v>
       </c>
       <c r="D44" s="1">
+        <v>44440</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>10</v>
+      </c>
+      <c r="B45" t="s">
+        <v>29</v>
+      </c>
+      <c r="C45" s="1">
+        <v>44409</v>
+      </c>
+      <c r="D45" s="1">
         <v>44562</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>10</v>
+      </c>
+      <c r="B46" t="s">
+        <v>30</v>
+      </c>
+      <c r="C46" s="1">
+        <v>44501</v>
+      </c>
+      <c r="D46" s="1">
+        <v>44593</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>10</v>
+      </c>
+      <c r="B47" t="s">
+        <v>58</v>
+      </c>
+      <c r="C47" s="1">
+        <v>44593</v>
+      </c>
+      <c r="D47" s="1">
+        <v>44621</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
         <v>11</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B48" t="s">
         <v>31</v>
-      </c>
-      <c r="C45" s="1">
-        <v>44501</v>
-      </c>
-      <c r="D45" s="1">
-        <v>44593</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>11</v>
-      </c>
-      <c r="B46" t="s">
-        <v>59</v>
-      </c>
-      <c r="C46" s="1">
-        <v>44593</v>
-      </c>
-      <c r="D46" s="1">
-        <v>44621</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>12</v>
-      </c>
-      <c r="B47" t="s">
-        <v>32</v>
-      </c>
-      <c r="C47" s="1">
-        <v>44075</v>
-      </c>
-      <c r="D47" s="1">
-        <v>44105</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>12</v>
-      </c>
-      <c r="B48" t="s">
-        <v>33</v>
       </c>
       <c r="C48" s="1">
         <v>44075</v>
@@ -1781,68 +1784,68 @@
         <v>44105</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B49" t="s">
+        <v>32</v>
+      </c>
+      <c r="C49" s="1">
+        <v>44075</v>
+      </c>
+      <c r="D49" s="1">
+        <v>44105</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>11</v>
+      </c>
+      <c r="B50" t="s">
+        <v>33</v>
+      </c>
+      <c r="C50" s="1">
+        <v>44317</v>
+      </c>
+      <c r="D50" s="1">
+        <v>44440</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>11</v>
+      </c>
+      <c r="B51" t="s">
         <v>34</v>
       </c>
-      <c r="C49" s="1">
-        <v>44317</v>
-      </c>
-      <c r="D49" s="1">
-        <v>44440</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>12</v>
-      </c>
-      <c r="B50" t="s">
+      <c r="C51" s="1">
+        <v>44409</v>
+      </c>
+      <c r="D51" s="1">
+        <v>44501</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>11</v>
+      </c>
+      <c r="B52" t="s">
         <v>35</v>
       </c>
-      <c r="C50" s="1">
-        <v>44409</v>
-      </c>
-      <c r="D50" s="1">
-        <v>44501</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>12</v>
-      </c>
-      <c r="B51" t="s">
-        <v>36</v>
-      </c>
-      <c r="C51" s="1">
+      <c r="C52" s="1">
         <v>44713</v>
-      </c>
-      <c r="D51" s="1">
-        <v>44835</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>12</v>
-      </c>
-      <c r="B52" t="s">
-        <v>37</v>
-      </c>
-      <c r="C52" s="1">
-        <v>44774</v>
       </c>
       <c r="D52" s="1">
         <v>44835</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B53" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C53" s="1">
         <v>44774</v>
@@ -1851,227 +1854,241 @@
         <v>44835</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B54" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C54" s="1">
+        <v>44774</v>
+      </c>
+      <c r="D54" s="1">
         <v>44835</v>
       </c>
-      <c r="D54" s="1">
-        <v>45078</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B55" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="C55" s="1">
         <v>44835</v>
       </c>
       <c r="D55" s="1">
+        <v>45078</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>11</v>
+      </c>
+      <c r="B56" t="s">
+        <v>59</v>
+      </c>
+      <c r="C56" s="1">
+        <v>44835</v>
+      </c>
+      <c r="D56" s="1">
         <v>44866</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>11</v>
+      </c>
+      <c r="B57" t="s">
+        <v>60</v>
+      </c>
+      <c r="C57" s="1">
+        <v>44896</v>
+      </c>
+      <c r="D57" s="1">
+        <v>44958</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>11</v>
+      </c>
+      <c r="B58" t="s">
+        <v>61</v>
+      </c>
+      <c r="C58" s="1">
+        <v>44682</v>
+      </c>
+      <c r="D58" s="1">
+        <v>45078</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
         <v>12</v>
       </c>
-      <c r="B56" t="s">
-        <v>61</v>
-      </c>
-      <c r="C56" s="1">
-        <v>44896</v>
-      </c>
-      <c r="D56" s="1">
+      <c r="B59" t="s">
+        <v>39</v>
+      </c>
+      <c r="C59" s="1">
+        <v>44075</v>
+      </c>
+      <c r="D59" s="1">
+        <v>44682</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>12</v>
+      </c>
+      <c r="B60" t="s">
+        <v>40</v>
+      </c>
+      <c r="C60" s="1">
+        <v>44136</v>
+      </c>
+      <c r="D60" s="1">
+        <v>44713</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>12</v>
+      </c>
+      <c r="B61" t="s">
+        <v>41</v>
+      </c>
+      <c r="C61" s="1">
+        <v>44593</v>
+      </c>
+      <c r="D61" s="1">
+        <v>44774</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>12</v>
+      </c>
+      <c r="B62" t="s">
+        <v>42</v>
+      </c>
+      <c r="C62" s="1">
+        <v>44682</v>
+      </c>
+      <c r="D62" s="1">
+        <v>44835</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>12</v>
+      </c>
+      <c r="B63" t="s">
+        <v>43</v>
+      </c>
+      <c r="C63" s="1">
+        <v>44835</v>
+      </c>
+      <c r="D63" s="1">
         <v>44958</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
         <v>12</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B64" t="s">
         <v>62</v>
       </c>
-      <c r="C57" s="1">
-        <v>44682</v>
-      </c>
-      <c r="D57" s="1">
+      <c r="C64" s="1">
+        <v>44958</v>
+      </c>
+      <c r="D64" s="1">
+        <v>45017</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>12</v>
+      </c>
+      <c r="B65" t="s">
+        <v>63</v>
+      </c>
+      <c r="C65" s="1">
+        <v>45017</v>
+      </c>
+      <c r="D65" s="1">
         <v>45078</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>13</v>
-      </c>
-      <c r="B58" t="s">
-        <v>40</v>
-      </c>
-      <c r="C58" s="1">
-        <v>44075</v>
-      </c>
-      <c r="D58" s="1">
-        <v>44682</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>13</v>
-      </c>
-      <c r="B59" t="s">
-        <v>41</v>
-      </c>
-      <c r="C59" s="1">
-        <v>44136</v>
-      </c>
-      <c r="D59" s="1">
-        <v>44713</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>13</v>
-      </c>
-      <c r="B60" t="s">
-        <v>42</v>
-      </c>
-      <c r="C60" s="1">
-        <v>44593</v>
-      </c>
-      <c r="D60" s="1">
-        <v>44774</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>13</v>
-      </c>
-      <c r="B61" t="s">
-        <v>43</v>
-      </c>
-      <c r="C61" s="1">
-        <v>44682</v>
-      </c>
-      <c r="D61" s="1">
-        <v>44835</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>13</v>
-      </c>
-      <c r="B62" t="s">
-        <v>44</v>
-      </c>
-      <c r="C62" s="1">
-        <v>44835</v>
-      </c>
-      <c r="D62" s="1">
-        <v>44958</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>13</v>
-      </c>
-      <c r="B63" t="s">
-        <v>63</v>
-      </c>
-      <c r="C63" s="1">
-        <v>44958</v>
-      </c>
-      <c r="D63" s="1">
-        <v>45017</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>13</v>
-      </c>
-      <c r="B64" t="s">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>12</v>
+      </c>
+      <c r="B66" t="s">
         <v>64</v>
       </c>
-      <c r="C64" s="1">
-        <v>45017</v>
-      </c>
-      <c r="D64" s="1">
+      <c r="C66" s="1">
         <v>45078</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>13</v>
-      </c>
-      <c r="B65" t="s">
-        <v>65</v>
-      </c>
-      <c r="C65" s="1">
-        <v>45078</v>
-      </c>
-      <c r="D65" s="1">
+      <c r="D66" s="1">
         <v>45139</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>4</v>
-      </c>
-      <c r="B66" t="s">
-        <v>46</v>
-      </c>
-      <c r="C66" s="1">
-        <v>44075</v>
-      </c>
-      <c r="D66" s="1">
-        <v>45169</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>4</v>
       </c>
       <c r="B67" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C67" s="1">
-        <v>44440</v>
+        <v>44075</v>
       </c>
       <c r="D67" s="1">
-        <v>44470</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+        <v>45169</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>4</v>
       </c>
       <c r="B68" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C68" s="1">
-        <v>44501</v>
+        <v>44440</v>
       </c>
       <c r="D68" s="1">
-        <v>44593</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+        <v>44470</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>4</v>
       </c>
       <c r="B69" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C69" s="1">
+        <v>44501</v>
+      </c>
+      <c r="D69" s="1">
+        <v>44593</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>4</v>
+      </c>
+      <c r="B70" t="s">
+        <v>48</v>
+      </c>
+      <c r="C70" s="1">
         <v>44927</v>
       </c>
-      <c r="D69" s="1">
+      <c r="D70" s="1">
         <v>45170</v>
       </c>
     </row>
@@ -2085,18 +2102,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="30.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2107,9 +2124,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -2118,75 +2135,75 @@
         <v>45170</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1">
         <v>44231</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="1">
         <v>44256</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" s="1">
         <v>44317</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" s="1">
         <v>44378</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" s="1">
         <v>44378</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" s="1">
         <v>44378</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
@@ -2195,119 +2212,119 @@
         <v>44652</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" s="1">
         <v>44197</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11" s="1">
         <v>44177</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" s="1">
         <v>44228</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C13" s="1">
         <v>44256</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C14" s="1">
         <v>44317</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C15" s="1">
         <v>44409</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C16" s="1">
         <v>44501</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C17" s="1">
         <v>44593</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C18" s="1">
         <v>44392</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" t="s">
         <v>66</v>
-      </c>
-      <c r="B19" t="s">
-        <v>67</v>
       </c>
       <c r="C19" s="1">
         <v>44392</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B20" t="s">
         <v>8</v>
@@ -2316,20 +2333,20 @@
         <v>45170</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C21" s="1">
         <v>44409</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>8</v>
@@ -2338,42 +2355,42 @@
         <v>45170</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C23" s="1">
         <v>44378</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C24" s="1">
         <v>44105</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C25" s="1">
         <v>44105</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>8</v>
@@ -2382,9 +2399,9 @@
         <v>44805</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>8</v>
@@ -2393,56 +2410,56 @@
         <v>45139</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C28" s="1">
         <v>44470</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C29" s="1">
         <v>44593</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C30" s="1">
         <v>44440</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C31" s="1">
         <v>44562</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C32" s="1">
         <v>44440</v>

--- a/data/project_timelines.xlsx
+++ b/data/project_timelines.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ucbtds4\R_Repositories\phd_project\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/david/r_repositories/phd_project/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F85D594-EC06-42BF-9618-5ECD994863E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C8E5744-9D33-2F4F-B9BB-E434206283D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="project_timelines" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="82">
   <si>
     <t>activity</t>
   </si>
@@ -35,226 +35,238 @@
     <t>wp</t>
   </si>
   <si>
+    <t>spot_type</t>
+  </si>
+  <si>
+    <t>spot_date</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>1.2. Search completion</t>
+  </si>
+  <si>
+    <t>1.1. Study protocol</t>
+  </si>
+  <si>
+    <t>1.3. Data extraction</t>
+  </si>
+  <si>
+    <t>1.4. Double checking</t>
+  </si>
+  <si>
+    <t>1.5. Analysis</t>
+  </si>
+  <si>
+    <t>1.6. Draft manuscript</t>
+  </si>
+  <si>
+    <t>1.7. Revise manuscript</t>
+  </si>
+  <si>
+    <t>1.8. Submit manuscript</t>
+  </si>
+  <si>
+    <t>2.0.1. Study protocol</t>
+  </si>
+  <si>
+    <t>2.0.2. Pilot visit - SL</t>
+  </si>
+  <si>
+    <t>2.0.3. Pilot data analysis and report</t>
+  </si>
+  <si>
+    <t>2.0.6. Study visit</t>
+  </si>
+  <si>
+    <t>2.0.5. Additional site setup - SL</t>
+  </si>
+  <si>
+    <t>2.0.4. Revise protocol</t>
+  </si>
+  <si>
+    <t>2.1.1. Study protocol</t>
+  </si>
+  <si>
+    <t>2.2.1. Study protocol</t>
+  </si>
+  <si>
+    <t>2.2.2. Pilot protocol</t>
+  </si>
+  <si>
+    <t>2.2.4. Analysis plan</t>
+  </si>
+  <si>
+    <t>2.2.6. Final analysis</t>
+  </si>
+  <si>
+    <t>2.2.7. Final manuscript</t>
+  </si>
+  <si>
+    <t>2.2.8. Submit manuscript</t>
+  </si>
+  <si>
+    <t>2.1.2. Lab work - SL</t>
+  </si>
+  <si>
+    <t>2.1.3. Pilot protocol</t>
+  </si>
+  <si>
+    <t>2.1.6. Final analysis</t>
+  </si>
+  <si>
+    <t>2.1.7. Final manuscript</t>
+  </si>
+  <si>
+    <t>2.1.8. Submit manuscript</t>
+  </si>
+  <si>
+    <t>2.0.7. Rodent sample analysis (lab)</t>
+  </si>
+  <si>
+    <t>2.2.3. Lab work - SL</t>
+  </si>
+  <si>
+    <t>2.2.5. Draft manuscript (interim analysis)</t>
+  </si>
+  <si>
+    <t>2.1.5. Draft manuscript (interim analysis)</t>
+  </si>
+  <si>
+    <t>1.9. Respond to reviewer comments</t>
+  </si>
+  <si>
+    <t>2.1.4. Analysis plan</t>
+  </si>
+  <si>
+    <t>3.1. Conceptual model</t>
+  </si>
+  <si>
+    <t>3.2. Data acquisition and pre-processing</t>
+  </si>
+  <si>
+    <t>3.3. Model testing and refinement</t>
+  </si>
+  <si>
+    <t>3.4. Model parameterisation</t>
+  </si>
+  <si>
+    <t>3.6. Draft manuscript</t>
+  </si>
+  <si>
+    <t>3.7. Final manuscript</t>
+  </si>
+  <si>
+    <t>3.8. Submit manuscript</t>
+  </si>
+  <si>
+    <t>3.5. Model application</t>
+  </si>
+  <si>
+    <t>4.1. Funding</t>
+  </si>
+  <si>
+    <t>4.2. Upgrade appraisal</t>
+  </si>
+  <si>
+    <t>4.3. PIPS</t>
+  </si>
+  <si>
+    <t>4.4. PhD write up</t>
+  </si>
+  <si>
+    <t>4.5. Intro draft</t>
+  </si>
+  <si>
+    <t>4.6. Discussion draft</t>
+  </si>
+  <si>
+    <t>5.1. Study protocol</t>
+  </si>
+  <si>
+    <t>5.2. Pilot protocol</t>
+  </si>
+  <si>
+    <t>5.4. Peridomestic species sample analysis</t>
+  </si>
+  <si>
+    <t>5.5. Analysis plan</t>
+  </si>
+  <si>
+    <t>5.3. Sample collection</t>
+  </si>
+  <si>
+    <t>6.1. Bioinformatics (epitope discovery)</t>
+  </si>
+  <si>
+    <t>6.2. Literature review (assays)</t>
+  </si>
+  <si>
+    <t>6.3. Plasmid production</t>
+  </si>
+  <si>
+    <t>6.5. Assay validation</t>
+  </si>
+  <si>
+    <t>6.6. Benchmarking against ELISA</t>
+  </si>
+  <si>
+    <t>6.7. Deployment in SL</t>
+  </si>
+  <si>
+    <t>6.8. Sample analysis</t>
+  </si>
+  <si>
+    <t>6.9. Draft manuscript</t>
+  </si>
+  <si>
+    <t>6.10. Final manuscript</t>
+  </si>
+  <si>
+    <t>6.11. Submit manuscript</t>
+  </si>
+  <si>
+    <t>6.4. Assay development</t>
+  </si>
+  <si>
+    <t>7.1. Draft manuscript</t>
+  </si>
+  <si>
+    <t>7.2. Submission</t>
+  </si>
+  <si>
+    <t>7.3. Revisions</t>
+  </si>
+  <si>
+    <t>7.4. Extend for thesis?</t>
+  </si>
+  <si>
+    <t>Chapter 2 (Scoping review)</t>
+  </si>
+  <si>
+    <t>Rodent trapping</t>
+  </si>
+  <si>
+    <t>Chapter 3 (Rodent distribution)</t>
+  </si>
+  <si>
+    <t>Chapter 4 (Rodent networks and transmission)</t>
+  </si>
+  <si>
+    <t>Chapter 5. (LF model)</t>
+  </si>
+  <si>
     <t>PhD timeline</t>
   </si>
   <si>
-    <t>spot_type</t>
-  </si>
-  <si>
-    <t>spot_date</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>O</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>3. Peridomestic species (Lassa serology)</t>
-  </si>
-  <si>
-    <t>4. LIPS development</t>
-  </si>
-  <si>
-    <t>5. Socio-ecological model of LF</t>
-  </si>
-  <si>
-    <t>1.2. Search completion</t>
-  </si>
-  <si>
-    <t>1.1. Study protocol</t>
-  </si>
-  <si>
-    <t>1.3. Data extraction</t>
-  </si>
-  <si>
-    <t>1.4. Double checking</t>
-  </si>
-  <si>
-    <t>1.5. Analysis</t>
-  </si>
-  <si>
-    <t>1.6. Draft manuscript</t>
-  </si>
-  <si>
-    <t>1.7. Revise manuscript</t>
-  </si>
-  <si>
-    <t>1.8. Submit manuscript</t>
-  </si>
-  <si>
-    <t>2.1. Rodent trapping (Population dynamics and distribution)</t>
-  </si>
-  <si>
-    <t>2.0.1. Study protocol</t>
-  </si>
-  <si>
-    <t>2.0.2. Pilot visit - SL</t>
-  </si>
-  <si>
-    <t>2.0.3. Pilot data analysis and report</t>
-  </si>
-  <si>
-    <t>2.0.6. Study visit</t>
-  </si>
-  <si>
-    <t>2.0. Rodent trapping</t>
-  </si>
-  <si>
-    <t>2.0.5. Additional site setup - SL</t>
-  </si>
-  <si>
-    <t>2.2. Rodent trapping (Lassa serology)</t>
-  </si>
-  <si>
-    <t>3.3. Sample collection</t>
-  </si>
-  <si>
-    <t>3.4. Peridomestic species sample analysis</t>
-  </si>
-  <si>
-    <t>4.1. Bioinformatics (epitope discovery)</t>
-  </si>
-  <si>
-    <t>4.2. Literature review (assays)</t>
-  </si>
-  <si>
-    <t>4.3. Plasmid production</t>
-  </si>
-  <si>
-    <t>4.4. Assay development</t>
-  </si>
-  <si>
-    <t>4.5. Assay validation</t>
-  </si>
-  <si>
-    <t>4.6. Benchmarking against ELISA</t>
-  </si>
-  <si>
-    <t>4.7. Deployment in SL</t>
-  </si>
-  <si>
-    <t>4.8. Sample analysis</t>
-  </si>
-  <si>
-    <t>5.1. Conceptual model</t>
-  </si>
-  <si>
-    <t>5.2. Data acquisition and pre-processing</t>
-  </si>
-  <si>
-    <t>5.3. Model testing and refinement</t>
-  </si>
-  <si>
-    <t>5.4. Model parameterisation</t>
-  </si>
-  <si>
-    <t>5.5. Model application</t>
-  </si>
-  <si>
-    <t>2.0.4. Revise protocol</t>
-  </si>
-  <si>
-    <t>6.1. Funding</t>
-  </si>
-  <si>
-    <t>6.2. Upgrade appraisal</t>
-  </si>
-  <si>
-    <t>6.3. PIPS</t>
-  </si>
-  <si>
-    <t>6.4. PhD write up</t>
-  </si>
-  <si>
-    <t>2.1.1. Study protocol</t>
-  </si>
-  <si>
-    <t>2.2.1. Study protocol</t>
-  </si>
-  <si>
-    <t>2.2.2. Pilot protocol</t>
-  </si>
-  <si>
-    <t>2.2.4. Analysis plan</t>
-  </si>
-  <si>
-    <t>2.2.6. Final analysis</t>
-  </si>
-  <si>
-    <t>2.2.7. Final manuscript</t>
-  </si>
-  <si>
-    <t>2.2.8. Submit manuscript</t>
-  </si>
-  <si>
-    <t>3.1. Study protocol</t>
-  </si>
-  <si>
-    <t>3.2. Pilot protocol</t>
-  </si>
-  <si>
-    <t>3.5. Analysis plan</t>
-  </si>
-  <si>
-    <t>4.9. Draft manuscript</t>
-  </si>
-  <si>
-    <t>4.10. Final manuscript</t>
-  </si>
-  <si>
-    <t>4.11. Submit manuscript</t>
-  </si>
-  <si>
-    <t>5.6. Draft manuscript</t>
-  </si>
-  <si>
-    <t>5.7. Final manuscript</t>
-  </si>
-  <si>
-    <t>5.8. Submit manuscript</t>
-  </si>
-  <si>
-    <t>2.1.2. Lab work - SL</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>2.1.3. Pilot protocol</t>
-  </si>
-  <si>
-    <t>2.1.4. Analysis plan (speciation)</t>
-  </si>
-  <si>
-    <t>2.1.6. Final analysis</t>
-  </si>
-  <si>
-    <t>2.1.7. Final manuscript</t>
-  </si>
-  <si>
-    <t>2.1.8. Submit manuscript</t>
-  </si>
-  <si>
-    <t>2.0.7. Rodent sample analysis (lab)</t>
-  </si>
-  <si>
-    <t>2.2.3. Lab work - SL</t>
-  </si>
-  <si>
-    <t>2.2.5. Draft manuscript (interim analysis)</t>
-  </si>
-  <si>
-    <t>2.1.5. Draft manuscript (interim analysis)</t>
-  </si>
-  <si>
-    <t>1. Chapter 2 (Scoping review)</t>
-  </si>
-  <si>
-    <t>1.9. Respond to reviewer comments</t>
+    <t>Peridomestic species (Lassa serology)</t>
+  </si>
+  <si>
+    <t>LIPS development</t>
+  </si>
+  <si>
+    <t>Lassa underreporting</t>
   </si>
 </sst>
 </file>
@@ -1099,20 +1111,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D70"/>
+  <dimension ref="A1:D76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:XFD26"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="46.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -1126,12 +1138,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1">
         <v>44166</v>
@@ -1140,12 +1152,12 @@
         <v>44231</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1">
         <v>44228</v>
@@ -1154,12 +1166,12 @@
         <v>44256</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C4" s="1">
         <v>44256</v>
@@ -1168,12 +1180,12 @@
         <v>44317</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C5" s="1">
         <v>44317</v>
@@ -1182,12 +1194,12 @@
         <v>44378</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C6" s="1">
         <v>44317</v>
@@ -1196,12 +1208,12 @@
         <v>44378</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C7" s="1">
         <v>44317</v>
@@ -1210,12 +1222,12 @@
         <v>44378</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C8" s="1">
         <v>44378</v>
@@ -1224,12 +1236,12 @@
         <v>44652</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C9" s="1">
         <v>44652</v>
@@ -1238,12 +1250,12 @@
         <v>44805</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B10" t="s">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="C10" s="1">
         <v>44855</v>
@@ -1252,12 +1264,12 @@
         <v>44870</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>74</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C11" s="1">
         <v>44075</v>
@@ -1266,12 +1278,12 @@
         <v>44197</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>74</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C12" s="1">
         <v>44147</v>
@@ -1280,12 +1292,12 @@
         <v>44177</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>74</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C13" s="1">
         <v>44166</v>
@@ -1294,12 +1306,12 @@
         <v>44228</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>74</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="C14" s="1">
         <v>44197</v>
@@ -1308,40 +1320,40 @@
         <v>44256</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>74</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C15" s="1">
+        <v>44359</v>
+      </c>
+      <c r="D15" s="1">
+        <v>44392</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="1">
         <v>44287</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D16" s="1">
         <v>44317</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="1">
-        <v>44359</v>
-      </c>
-      <c r="D16" s="1">
-        <v>44392</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>74</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C17" s="1">
         <v>44378</v>
@@ -1350,12 +1362,12 @@
         <v>44409</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>74</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C18" s="1">
         <v>44470</v>
@@ -1364,12 +1376,12 @@
         <v>44501</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>74</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C19" s="1">
         <v>44562</v>
@@ -1378,12 +1390,12 @@
         <v>44593</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>74</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C20" s="1">
         <v>44652</v>
@@ -1392,12 +1404,12 @@
         <v>44682</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>74</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C21" s="1">
         <v>44743</v>
@@ -1406,12 +1418,12 @@
         <v>44774</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>74</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C22" s="1">
         <v>44835</v>
@@ -1420,12 +1432,12 @@
         <v>44866</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>74</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C23" s="1">
         <v>44927</v>
@@ -1434,12 +1446,12 @@
         <v>44958</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>74</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C24" s="1">
         <v>45017</v>
@@ -1448,12 +1460,12 @@
         <v>45047</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>74</v>
       </c>
       <c r="B25" t="s">
-        <v>72</v>
+        <v>33</v>
       </c>
       <c r="C25" s="1">
         <v>44652</v>
@@ -1462,12 +1474,12 @@
         <v>45078</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>75</v>
+      </c>
+      <c r="B26" t="s">
         <v>21</v>
-      </c>
-      <c r="B26" t="s">
-        <v>49</v>
       </c>
       <c r="C26" s="1">
         <v>44317</v>
@@ -1476,12 +1488,12 @@
         <v>44531</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="B27" t="s">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="C27" s="1">
         <v>44359</v>
@@ -1490,26 +1502,26 @@
         <v>44392</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="B28" t="s">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="C28" s="1">
-        <v>44665</v>
+        <v>44726</v>
       </c>
       <c r="D28" s="1">
-        <v>44679</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44740</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="B29" t="s">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="C29" s="1">
         <v>44638</v>
@@ -1518,12 +1530,12 @@
         <v>44653</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="B30" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="C30" s="1">
         <v>44593</v>
@@ -1532,12 +1544,12 @@
         <v>44652</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="B31" t="s">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="C31" s="1">
         <v>44682</v>
@@ -1546,12 +1558,12 @@
         <v>44805</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="B32" t="s">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="C32" s="1">
         <v>45078</v>
@@ -1560,12 +1572,12 @@
         <v>45108</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="B33" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="C33" s="1">
         <v>45078</v>
@@ -1574,12 +1586,12 @@
         <v>45139</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="B34" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="C34" s="1">
         <v>45139</v>
@@ -1588,12 +1600,12 @@
         <v>45170</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="B35" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="C35" s="1">
         <v>44440</v>
@@ -1602,12 +1614,12 @@
         <v>44531</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="B36" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="C36" s="1">
         <v>44638</v>
@@ -1616,12 +1628,12 @@
         <v>44653</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="B37" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="C37" s="1">
         <v>44665</v>
@@ -1630,40 +1642,40 @@
         <v>44679</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="B38" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="C38" s="1">
-        <v>44593</v>
+        <v>44713</v>
       </c>
       <c r="D38" s="1">
-        <v>44652</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44774</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="B39" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="C39" s="1">
-        <v>44774</v>
+        <v>44805</v>
       </c>
       <c r="D39" s="1">
         <v>44896</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="B40" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="C40" s="1">
         <v>45078</v>
@@ -1672,12 +1684,12 @@
         <v>45108</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="B41" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="C41" s="1">
         <v>45078</v>
@@ -1686,12 +1698,12 @@
         <v>45139</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="B42" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="C42" s="1">
         <v>45139</v>
@@ -1700,396 +1712,480 @@
         <v>45170</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="B43" t="s">
+        <v>39</v>
+      </c>
+      <c r="C43" s="1">
+        <v>44075</v>
+      </c>
+      <c r="D43" s="1">
+        <v>44682</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>77</v>
+      </c>
+      <c r="B44" t="s">
+        <v>40</v>
+      </c>
+      <c r="C44" s="1">
+        <v>44136</v>
+      </c>
+      <c r="D44" s="1">
+        <v>44713</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>77</v>
+      </c>
+      <c r="B45" t="s">
+        <v>41</v>
+      </c>
+      <c r="C45" s="1">
+        <v>44593</v>
+      </c>
+      <c r="D45" s="1">
+        <v>44774</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>77</v>
+      </c>
+      <c r="B46" t="s">
+        <v>42</v>
+      </c>
+      <c r="C46" s="1">
+        <v>44682</v>
+      </c>
+      <c r="D46" s="1">
+        <v>44835</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>77</v>
+      </c>
+      <c r="B47" t="s">
+        <v>46</v>
+      </c>
+      <c r="C47" s="1">
+        <v>44835</v>
+      </c>
+      <c r="D47" s="1">
+        <v>44986</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>77</v>
+      </c>
+      <c r="B48" t="s">
+        <v>43</v>
+      </c>
+      <c r="C48" s="1">
+        <v>44986</v>
+      </c>
+      <c r="D48" s="1">
+        <v>45017</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>77</v>
+      </c>
+      <c r="B49" t="s">
+        <v>44</v>
+      </c>
+      <c r="C49" s="1">
+        <v>45017</v>
+      </c>
+      <c r="D49" s="1">
+        <v>45078</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>77</v>
+      </c>
+      <c r="B50" t="s">
+        <v>45</v>
+      </c>
+      <c r="C50" s="1">
+        <v>45078</v>
+      </c>
+      <c r="D50" s="1">
+        <v>45139</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>78</v>
+      </c>
+      <c r="B51" t="s">
+        <v>47</v>
+      </c>
+      <c r="C51" s="1">
+        <v>44075</v>
+      </c>
+      <c r="D51" s="1">
+        <v>45169</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>78</v>
+      </c>
+      <c r="B52" t="s">
+        <v>48</v>
+      </c>
+      <c r="C52" s="1">
+        <v>44440</v>
+      </c>
+      <c r="D52" s="1">
+        <v>44470</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>78</v>
+      </c>
+      <c r="B53" t="s">
+        <v>49</v>
+      </c>
+      <c r="C53" s="1">
+        <v>44501</v>
+      </c>
+      <c r="D53" s="1">
+        <v>44593</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>78</v>
+      </c>
+      <c r="B54" t="s">
+        <v>50</v>
+      </c>
+      <c r="C54" s="1">
+        <v>44927</v>
+      </c>
+      <c r="D54" s="1">
+        <v>45170</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>78</v>
+      </c>
+      <c r="B55" t="s">
+        <v>51</v>
+      </c>
+      <c r="C55" s="1">
+        <v>45017</v>
+      </c>
+      <c r="D55" s="1">
+        <v>45047</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>78</v>
+      </c>
+      <c r="B56" t="s">
+        <v>52</v>
+      </c>
+      <c r="C56" s="1">
+        <v>45017</v>
+      </c>
+      <c r="D56" s="1">
+        <v>45047</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>79</v>
+      </c>
+      <c r="B57" t="s">
+        <v>53</v>
+      </c>
+      <c r="C57" s="1">
+        <v>44348</v>
+      </c>
+      <c r="D57" s="1">
+        <v>44409</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>79</v>
+      </c>
+      <c r="B58" t="s">
+        <v>54</v>
+      </c>
+      <c r="C58" s="1">
+        <v>44409</v>
+      </c>
+      <c r="D58" s="1">
+        <v>44440</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>79</v>
+      </c>
+      <c r="B59" t="s">
+        <v>57</v>
+      </c>
+      <c r="C59" s="1">
+        <v>44409</v>
+      </c>
+      <c r="D59" s="1">
+        <v>44562</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>79</v>
+      </c>
+      <c r="B60" t="s">
+        <v>55</v>
+      </c>
+      <c r="C60" s="1">
+        <v>44958</v>
+      </c>
+      <c r="D60" s="1">
+        <v>45017</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>79</v>
+      </c>
+      <c r="B61" t="s">
         <v>56</v>
       </c>
-      <c r="C43" s="1">
-        <v>44348</v>
-      </c>
-      <c r="D43" s="1">
+      <c r="C61" s="1">
+        <v>44958</v>
+      </c>
+      <c r="D61" s="1">
+        <v>45017</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>80</v>
+      </c>
+      <c r="B62" t="s">
+        <v>58</v>
+      </c>
+      <c r="C62" s="1">
+        <v>44075</v>
+      </c>
+      <c r="D62" s="1">
+        <v>44105</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>80</v>
+      </c>
+      <c r="B63" t="s">
+        <v>59</v>
+      </c>
+      <c r="C63" s="1">
+        <v>44075</v>
+      </c>
+      <c r="D63" s="1">
+        <v>44105</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>80</v>
+      </c>
+      <c r="B64" t="s">
+        <v>60</v>
+      </c>
+      <c r="C64" s="1">
+        <v>44317</v>
+      </c>
+      <c r="D64" s="1">
+        <v>44440</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>80</v>
+      </c>
+      <c r="B65" t="s">
+        <v>68</v>
+      </c>
+      <c r="C65" s="1">
         <v>44409</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>10</v>
-      </c>
-      <c r="B44" t="s">
-        <v>57</v>
-      </c>
-      <c r="C44" s="1">
-        <v>44409</v>
-      </c>
-      <c r="D44" s="1">
-        <v>44440</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>10</v>
-      </c>
-      <c r="B45" t="s">
-        <v>29</v>
-      </c>
-      <c r="C45" s="1">
-        <v>44409</v>
-      </c>
-      <c r="D45" s="1">
-        <v>44562</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>10</v>
-      </c>
-      <c r="B46" t="s">
-        <v>30</v>
-      </c>
-      <c r="C46" s="1">
+      <c r="D65" s="1">
         <v>44501</v>
       </c>
-      <c r="D46" s="1">
-        <v>44593</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>10</v>
-      </c>
-      <c r="B47" t="s">
-        <v>58</v>
-      </c>
-      <c r="C47" s="1">
-        <v>44593</v>
-      </c>
-      <c r="D47" s="1">
-        <v>44621</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>11</v>
-      </c>
-      <c r="B48" t="s">
-        <v>31</v>
-      </c>
-      <c r="C48" s="1">
-        <v>44075</v>
-      </c>
-      <c r="D48" s="1">
-        <v>44105</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>11</v>
-      </c>
-      <c r="B49" t="s">
-        <v>32</v>
-      </c>
-      <c r="C49" s="1">
-        <v>44075</v>
-      </c>
-      <c r="D49" s="1">
-        <v>44105</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>11</v>
-      </c>
-      <c r="B50" t="s">
-        <v>33</v>
-      </c>
-      <c r="C50" s="1">
-        <v>44317</v>
-      </c>
-      <c r="D50" s="1">
-        <v>44440</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>11</v>
-      </c>
-      <c r="B51" t="s">
-        <v>34</v>
-      </c>
-      <c r="C51" s="1">
-        <v>44409</v>
-      </c>
-      <c r="D51" s="1">
-        <v>44501</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>11</v>
-      </c>
-      <c r="B52" t="s">
-        <v>35</v>
-      </c>
-      <c r="C52" s="1">
-        <v>44713</v>
-      </c>
-      <c r="D52" s="1">
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>80</v>
+      </c>
+      <c r="B66" t="s">
+        <v>61</v>
+      </c>
+      <c r="C66" s="1">
+        <v>44774</v>
+      </c>
+      <c r="D66" s="1">
         <v>44835</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>11</v>
-      </c>
-      <c r="B53" t="s">
-        <v>36</v>
-      </c>
-      <c r="C53" s="1">
-        <v>44774</v>
-      </c>
-      <c r="D53" s="1">
-        <v>44835</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>11</v>
-      </c>
-      <c r="B54" t="s">
-        <v>37</v>
-      </c>
-      <c r="C54" s="1">
-        <v>44774</v>
-      </c>
-      <c r="D54" s="1">
-        <v>44835</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>11</v>
-      </c>
-      <c r="B55" t="s">
-        <v>38</v>
-      </c>
-      <c r="C55" s="1">
-        <v>44835</v>
-      </c>
-      <c r="D55" s="1">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>80</v>
+      </c>
+      <c r="B67" t="s">
+        <v>62</v>
+      </c>
+      <c r="C67" s="1">
+        <v>44958</v>
+      </c>
+      <c r="D67" s="1">
+        <v>44986</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>80</v>
+      </c>
+      <c r="B68" t="s">
+        <v>63</v>
+      </c>
+      <c r="C68" s="1">
+        <v>44958</v>
+      </c>
+      <c r="D68" s="1">
+        <v>44986</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>80</v>
+      </c>
+      <c r="B69" t="s">
+        <v>64</v>
+      </c>
+      <c r="C69" s="1">
+        <v>44986</v>
+      </c>
+      <c r="D69" s="1">
         <v>45078</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>11</v>
-      </c>
-      <c r="B56" t="s">
-        <v>59</v>
-      </c>
-      <c r="C56" s="1">
-        <v>44835</v>
-      </c>
-      <c r="D56" s="1">
-        <v>44866</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>11</v>
-      </c>
-      <c r="B57" t="s">
-        <v>60</v>
-      </c>
-      <c r="C57" s="1">
-        <v>44896</v>
-      </c>
-      <c r="D57" s="1">
-        <v>44958</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>11</v>
-      </c>
-      <c r="B58" t="s">
-        <v>61</v>
-      </c>
-      <c r="C58" s="1">
-        <v>44682</v>
-      </c>
-      <c r="D58" s="1">
-        <v>45078</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>12</v>
-      </c>
-      <c r="B59" t="s">
-        <v>39</v>
-      </c>
-      <c r="C59" s="1">
-        <v>44075</v>
-      </c>
-      <c r="D59" s="1">
-        <v>44682</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>12</v>
-      </c>
-      <c r="B60" t="s">
-        <v>40</v>
-      </c>
-      <c r="C60" s="1">
-        <v>44136</v>
-      </c>
-      <c r="D60" s="1">
-        <v>44713</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>12</v>
-      </c>
-      <c r="B61" t="s">
-        <v>41</v>
-      </c>
-      <c r="C61" s="1">
-        <v>44593</v>
-      </c>
-      <c r="D61" s="1">
-        <v>44774</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>12</v>
-      </c>
-      <c r="B62" t="s">
-        <v>42</v>
-      </c>
-      <c r="C62" s="1">
-        <v>44682</v>
-      </c>
-      <c r="D62" s="1">
-        <v>44835</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>12</v>
-      </c>
-      <c r="B63" t="s">
-        <v>43</v>
-      </c>
-      <c r="C63" s="1">
-        <v>44835</v>
-      </c>
-      <c r="D63" s="1">
-        <v>44958</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>12</v>
-      </c>
-      <c r="B64" t="s">
-        <v>62</v>
-      </c>
-      <c r="C64" s="1">
-        <v>44958</v>
-      </c>
-      <c r="D64" s="1">
-        <v>45017</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>12</v>
-      </c>
-      <c r="B65" t="s">
-        <v>63</v>
-      </c>
-      <c r="C65" s="1">
-        <v>45017</v>
-      </c>
-      <c r="D65" s="1">
-        <v>45078</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>12</v>
-      </c>
-      <c r="B66" t="s">
-        <v>64</v>
-      </c>
-      <c r="C66" s="1">
-        <v>45078</v>
-      </c>
-      <c r="D66" s="1">
-        <v>45139</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>4</v>
-      </c>
-      <c r="B67" t="s">
-        <v>45</v>
-      </c>
-      <c r="C67" s="1">
-        <v>44075</v>
-      </c>
-      <c r="D67" s="1">
-        <v>45169</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>4</v>
-      </c>
-      <c r="B68" t="s">
-        <v>46</v>
-      </c>
-      <c r="C68" s="1">
-        <v>44440</v>
-      </c>
-      <c r="D68" s="1">
-        <v>44470</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>4</v>
-      </c>
-      <c r="B69" t="s">
-        <v>47</v>
-      </c>
-      <c r="C69" s="1">
-        <v>44501</v>
-      </c>
-      <c r="D69" s="1">
-        <v>44593</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="B70" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="C70" s="1">
         <v>44927</v>
       </c>
       <c r="D70" s="1">
+        <v>45078</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>80</v>
+      </c>
+      <c r="B71" t="s">
+        <v>66</v>
+      </c>
+      <c r="C71" s="1">
+        <v>45078</v>
+      </c>
+      <c r="D71" s="1">
+        <v>45139</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>80</v>
+      </c>
+      <c r="B72" t="s">
+        <v>67</v>
+      </c>
+      <c r="C72" s="1">
         <v>45170</v>
+      </c>
+      <c r="D72" s="1">
+        <v>45170</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>81</v>
+      </c>
+      <c r="B73" t="s">
+        <v>69</v>
+      </c>
+      <c r="C73" s="1">
+        <v>44818</v>
+      </c>
+      <c r="D73" s="1">
+        <v>44835</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>81</v>
+      </c>
+      <c r="B74" t="s">
+        <v>70</v>
+      </c>
+      <c r="C74" s="1">
+        <v>44835</v>
+      </c>
+      <c r="D74" s="1">
+        <v>44836</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>81</v>
+      </c>
+      <c r="B75" t="s">
+        <v>71</v>
+      </c>
+      <c r="C75" s="1">
+        <v>44852</v>
+      </c>
+      <c r="D75" s="1">
+        <v>44858</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>81</v>
+      </c>
+      <c r="B76" t="s">
+        <v>72</v>
+      </c>
+      <c r="C76" s="1">
+        <v>44896</v>
+      </c>
+      <c r="D76" s="1">
+        <v>44986</v>
       </c>
     </row>
   </sheetData>
@@ -2100,372 +2196,494 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:XFD23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="30.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1">
+        <v>44231</v>
+      </c>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1">
-        <v>45170</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
       <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1">
+        <v>44256</v>
+      </c>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1">
-        <v>44231</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C4" s="1">
-        <v>44256</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>44317</v>
+      </c>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C5" s="1">
-        <v>44317</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <v>44378</v>
+      </c>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C6" s="1">
         <v>44378</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C7" s="1">
         <v>44378</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C8" s="1">
-        <v>44378</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+        <v>44652</v>
+      </c>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C9" s="1">
-        <v>44652</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+        <v>44805</v>
+      </c>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C10" s="1">
         <v>44197</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C11" s="1">
         <v>44177</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C12" s="1">
         <v>44228</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C13" s="1">
         <v>44256</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C14" s="1">
         <v>44317</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C15" s="1">
+        <v>44392</v>
+      </c>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="1">
         <v>44409</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="1">
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="1">
         <v>44501</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="1">
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="1">
         <v>44593</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="1">
-        <v>44392</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="C19" s="1">
-        <v>44392</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+        <v>44682</v>
+      </c>
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C20" s="1">
-        <v>45170</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+        <v>44774</v>
+      </c>
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>49</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
+        <v>6</v>
       </c>
       <c r="C21" s="1">
-        <v>44409</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+        <v>44866</v>
+      </c>
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>55</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>6</v>
       </c>
       <c r="C22" s="1">
-        <v>45170</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+        <v>44531</v>
+      </c>
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>56</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>9</v>
+        <v>28</v>
+      </c>
+      <c r="B23" t="s">
+        <v>6</v>
       </c>
       <c r="C23" s="1">
-        <v>44378</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+        <v>44740</v>
+      </c>
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>9</v>
+        <v>29</v>
+      </c>
+      <c r="B24" t="s">
+        <v>6</v>
       </c>
       <c r="C24" s="1">
-        <v>44105</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+        <v>44653</v>
+      </c>
+      <c r="J24" s="1"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>32</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>9</v>
+        <v>38</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
       </c>
       <c r="C25" s="1">
-        <v>44105</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+        <v>44652</v>
+      </c>
+      <c r="J25" s="1"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>61</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>8</v>
+        <v>36</v>
+      </c>
+      <c r="B26" t="s">
+        <v>6</v>
       </c>
       <c r="C26" s="1">
         <v>44805</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="J26" s="1"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>64</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
+      </c>
+      <c r="B27" t="s">
+        <v>6</v>
       </c>
       <c r="C27" s="1">
-        <v>45139</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+        <v>44531</v>
+      </c>
+      <c r="J27" s="1"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>46</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>9</v>
+        <v>23</v>
+      </c>
+      <c r="B28" t="s">
+        <v>6</v>
       </c>
       <c r="C28" s="1">
+        <v>44653</v>
+      </c>
+      <c r="J28" s="1"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>48</v>
+      </c>
+      <c r="B29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="1">
         <v>44470</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>47</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29" s="1">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>49</v>
+      </c>
+      <c r="B30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="1">
         <v>44593</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>57</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30" s="1">
-        <v>44440</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>9</v>
+        <v>53</v>
+      </c>
+      <c r="B31" t="s">
+        <v>6</v>
       </c>
       <c r="C31" s="1">
-        <v>44562</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+        <v>44409</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>33</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>9</v>
+        <v>54</v>
+      </c>
+      <c r="B32" t="s">
+        <v>6</v>
       </c>
       <c r="C32" s="1">
         <v>44440</v>
       </c>
     </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>57</v>
+      </c>
+      <c r="B33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="1">
+        <v>44562</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>58</v>
+      </c>
+      <c r="B34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="1">
+        <v>44105</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>59</v>
+      </c>
+      <c r="B35" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="1">
+        <v>44105</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>60</v>
+      </c>
+      <c r="B36" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="1">
+        <v>44440</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>68</v>
+      </c>
+      <c r="B37" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="1">
+        <v>44501</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>69</v>
+      </c>
+      <c r="B38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="1">
+        <v>44835</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>70</v>
+      </c>
+      <c r="B39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="1">
+        <v>44836</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>71</v>
+      </c>
+      <c r="B40" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="1">
+        <v>44858</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C28">
+    <sortCondition ref="C2:C28"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/project_timelines.xlsx
+++ b/data/project_timelines.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/david/r_repositories/phd_project/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C8E5744-9D33-2F4F-B9BB-E434206283D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{268DDDFF-E9D8-6C42-80B6-8E350747EB09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="68">
   <si>
     <t>activity</t>
   </si>
@@ -68,91 +68,94 @@
     <t>1.8. Submit manuscript</t>
   </si>
   <si>
-    <t>2.0.1. Study protocol</t>
-  </si>
-  <si>
-    <t>2.0.2. Pilot visit - SL</t>
-  </si>
-  <si>
-    <t>2.0.3. Pilot data analysis and report</t>
-  </si>
-  <si>
-    <t>2.0.6. Study visit</t>
-  </si>
-  <si>
-    <t>2.0.5. Additional site setup - SL</t>
-  </si>
-  <si>
-    <t>2.0.4. Revise protocol</t>
-  </si>
-  <si>
-    <t>2.1.1. Study protocol</t>
-  </si>
-  <si>
-    <t>2.2.1. Study protocol</t>
-  </si>
-  <si>
-    <t>2.2.2. Pilot protocol</t>
-  </si>
-  <si>
-    <t>2.2.4. Analysis plan</t>
-  </si>
-  <si>
-    <t>2.2.6. Final analysis</t>
-  </si>
-  <si>
-    <t>2.2.7. Final manuscript</t>
-  </si>
-  <si>
-    <t>2.2.8. Submit manuscript</t>
-  </si>
-  <si>
-    <t>2.1.2. Lab work - SL</t>
-  </si>
-  <si>
-    <t>2.1.3. Pilot protocol</t>
-  </si>
-  <si>
-    <t>2.1.6. Final analysis</t>
-  </si>
-  <si>
-    <t>2.1.7. Final manuscript</t>
-  </si>
-  <si>
-    <t>2.1.8. Submit manuscript</t>
-  </si>
-  <si>
-    <t>2.0.7. Rodent sample analysis (lab)</t>
-  </si>
-  <si>
-    <t>2.2.3. Lab work - SL</t>
-  </si>
-  <si>
-    <t>2.2.5. Draft manuscript (interim analysis)</t>
-  </si>
-  <si>
-    <t>2.1.5. Draft manuscript (interim analysis)</t>
-  </si>
-  <si>
     <t>1.9. Respond to reviewer comments</t>
   </si>
   <si>
-    <t>2.1.4. Analysis plan</t>
-  </si>
-  <si>
-    <t>3.1. Conceptual model</t>
-  </si>
-  <si>
-    <t>3.2. Data acquisition and pre-processing</t>
-  </si>
-  <si>
-    <t>3.3. Model testing and refinement</t>
-  </si>
-  <si>
-    <t>3.4. Model parameterisation</t>
-  </si>
-  <si>
-    <t>3.6. Draft manuscript</t>
+    <t>6.1. Bioinformatics (epitope discovery)</t>
+  </si>
+  <si>
+    <t>6.2. Literature review (assays)</t>
+  </si>
+  <si>
+    <t>6.3. Plasmid production</t>
+  </si>
+  <si>
+    <t>6.5. Assay validation</t>
+  </si>
+  <si>
+    <t>6.6. Benchmarking against ELISA</t>
+  </si>
+  <si>
+    <t>6.7. Deployment in SL</t>
+  </si>
+  <si>
+    <t>6.8. Sample analysis</t>
+  </si>
+  <si>
+    <t>6.9. Draft manuscript</t>
+  </si>
+  <si>
+    <t>6.10. Final manuscript</t>
+  </si>
+  <si>
+    <t>6.11. Submit manuscript</t>
+  </si>
+  <si>
+    <t>6.4. Assay development</t>
+  </si>
+  <si>
+    <t>7.1. Draft manuscript</t>
+  </si>
+  <si>
+    <t>7.2. Submission</t>
+  </si>
+  <si>
+    <t>7.3. Revisions</t>
+  </si>
+  <si>
+    <t>7.4. Extend for thesis?</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>2.1. Study protocol</t>
+  </si>
+  <si>
+    <t>2.2. Pilot visit - SL</t>
+  </si>
+  <si>
+    <t>2.3. Pilot data analysis and report</t>
+  </si>
+  <si>
+    <t>2.4. Revise protocol</t>
+  </si>
+  <si>
+    <t>2.5. Additional site setup - SL</t>
+  </si>
+  <si>
+    <t>2.6. Study visit</t>
+  </si>
+  <si>
+    <t>2.7. Rodent sample analysis (lab)</t>
+  </si>
+  <si>
+    <t>3.1. Study protocol</t>
+  </si>
+  <si>
+    <t>3.2. Lab work - SL</t>
+  </si>
+  <si>
+    <t>3.3. Pilot protocol</t>
+  </si>
+  <si>
+    <t>3.4. Analysis plan</t>
+  </si>
+  <si>
+    <t>3.5. Draft manuscript (interim analysis)</t>
+  </si>
+  <si>
+    <t>3.6. Final analysis</t>
   </si>
   <si>
     <t>3.7. Final manuscript</t>
@@ -161,112 +164,67 @@
     <t>3.8. Submit manuscript</t>
   </si>
   <si>
-    <t>3.5. Model application</t>
-  </si>
-  <si>
-    <t>4.1. Funding</t>
-  </si>
-  <si>
-    <t>4.2. Upgrade appraisal</t>
-  </si>
-  <si>
-    <t>4.3. PIPS</t>
-  </si>
-  <si>
-    <t>4.4. PhD write up</t>
-  </si>
-  <si>
-    <t>4.5. Intro draft</t>
-  </si>
-  <si>
-    <t>4.6. Discussion draft</t>
-  </si>
-  <si>
-    <t>5.1. Study protocol</t>
-  </si>
-  <si>
-    <t>5.2. Pilot protocol</t>
-  </si>
-  <si>
-    <t>5.4. Peridomestic species sample analysis</t>
-  </si>
-  <si>
-    <t>5.5. Analysis plan</t>
-  </si>
-  <si>
-    <t>5.3. Sample collection</t>
-  </si>
-  <si>
-    <t>6.1. Bioinformatics (epitope discovery)</t>
-  </si>
-  <si>
-    <t>6.2. Literature review (assays)</t>
-  </si>
-  <si>
-    <t>6.3. Plasmid production</t>
-  </si>
-  <si>
-    <t>6.5. Assay validation</t>
-  </si>
-  <si>
-    <t>6.6. Benchmarking against ELISA</t>
-  </si>
-  <si>
-    <t>6.7. Deployment in SL</t>
-  </si>
-  <si>
-    <t>6.8. Sample analysis</t>
-  </si>
-  <si>
-    <t>6.9. Draft manuscript</t>
-  </si>
-  <si>
-    <t>6.10. Final manuscript</t>
-  </si>
-  <si>
-    <t>6.11. Submit manuscript</t>
-  </si>
-  <si>
-    <t>6.4. Assay development</t>
-  </si>
-  <si>
-    <t>7.1. Draft manuscript</t>
-  </si>
-  <si>
-    <t>7.2. Submission</t>
-  </si>
-  <si>
-    <t>7.3. Revisions</t>
-  </si>
-  <si>
-    <t>7.4. Extend for thesis?</t>
-  </si>
-  <si>
-    <t>Chapter 2 (Scoping review)</t>
-  </si>
-  <si>
-    <t>Rodent trapping</t>
-  </si>
-  <si>
-    <t>Chapter 3 (Rodent distribution)</t>
-  </si>
-  <si>
-    <t>Chapter 4 (Rodent networks and transmission)</t>
-  </si>
-  <si>
-    <t>Chapter 5. (LF model)</t>
-  </si>
-  <si>
-    <t>PhD timeline</t>
-  </si>
-  <si>
-    <t>Peridomestic species (Lassa serology)</t>
-  </si>
-  <si>
-    <t>LIPS development</t>
-  </si>
-  <si>
-    <t>Lassa underreporting</t>
+    <t>4.1. Study protocol</t>
+  </si>
+  <si>
+    <t>4.2. Pilot protocol</t>
+  </si>
+  <si>
+    <t>4.3. Lab work - SL</t>
+  </si>
+  <si>
+    <t>4.4. Analysis plan</t>
+  </si>
+  <si>
+    <t>4.5. Draft manuscript (interim analysis)</t>
+  </si>
+  <si>
+    <t>4.6. Final analysis</t>
+  </si>
+  <si>
+    <t>4.7. Final manuscript</t>
+  </si>
+  <si>
+    <t>4.8. Submit manuscript</t>
+  </si>
+  <si>
+    <t>5.1. Funding</t>
+  </si>
+  <si>
+    <t>5.2. Upgrade appraisal</t>
+  </si>
+  <si>
+    <t>5.3. PIPS</t>
+  </si>
+  <si>
+    <t>5.4. PhD write up</t>
+  </si>
+  <si>
+    <t>5.5. Intro draft</t>
+  </si>
+  <si>
+    <t>5.6. Discussion draft</t>
+  </si>
+  <si>
+    <t>WP1 - Chapter 2 (Scoping review)</t>
+  </si>
+  <si>
+    <t>WP2 - Rodent trapping</t>
+  </si>
+  <si>
+    <t>WP3 - Chapter 3 (Rodent distribution)</t>
+  </si>
+  <si>
+    <t>WP4 - Chapter 4 (Rodent networks and transmission)</t>
+  </si>
+  <si>
+    <t>WP5 - PhD timeline</t>
+  </si>
+  <si>
+    <t>WP6 - LIPS development</t>
+  </si>
+  <si>
+    <t>WP7 - Lassa underreporting</t>
   </si>
 </sst>
 </file>
@@ -1111,10 +1069,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D76"/>
+  <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView topLeftCell="A29" zoomScale="102" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16:B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1140,7 +1098,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -1154,7 +1112,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -1168,7 +1126,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -1182,7 +1140,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -1196,7 +1154,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
@@ -1210,7 +1168,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
@@ -1224,7 +1182,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
@@ -1238,7 +1196,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="B9" t="s">
         <v>14</v>
@@ -1252,10 +1210,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="C10" s="1">
         <v>44855</v>
@@ -1266,10 +1224,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="C11" s="1">
         <v>44075</v>
@@ -1280,10 +1238,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="C12" s="1">
         <v>44147</v>
@@ -1294,10 +1252,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="C13" s="1">
         <v>44166</v>
@@ -1308,10 +1266,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="C14" s="1">
         <v>44197</v>
@@ -1322,10 +1280,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="C15" s="1">
         <v>44359</v>
@@ -1336,10 +1294,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="C16" s="1">
         <v>44287</v>
@@ -1350,10 +1308,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="C17" s="1">
         <v>44378</v>
@@ -1364,10 +1322,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="C18" s="1">
         <v>44470</v>
@@ -1378,10 +1336,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="C19" s="1">
         <v>44562</v>
@@ -1392,10 +1350,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="C20" s="1">
         <v>44652</v>
@@ -1406,10 +1364,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="B21" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="C21" s="1">
         <v>44743</v>
@@ -1420,10 +1378,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="B22" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="C22" s="1">
         <v>44835</v>
@@ -1434,10 +1392,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="B23" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="C23" s="1">
         <v>44927</v>
@@ -1448,10 +1406,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="B24" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="C24" s="1">
         <v>45017</v>
@@ -1462,10 +1420,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="B25" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C25" s="1">
         <v>44652</v>
@@ -1476,10 +1434,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="B26" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="C26" s="1">
         <v>44317</v>
@@ -1490,10 +1448,10 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="B27" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="C27" s="1">
         <v>44359</v>
@@ -1504,10 +1462,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="B28" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="C28" s="1">
         <v>44726</v>
@@ -1518,10 +1476,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="B29" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="C29" s="1">
         <v>44638</v>
@@ -1532,10 +1490,10 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="B30" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C30" s="1">
         <v>44593</v>
@@ -1546,27 +1504,27 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="B31" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C31" s="1">
         <v>44682</v>
       </c>
       <c r="D31" s="1">
-        <v>44805</v>
+        <v>44958</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="B32" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="C32" s="1">
-        <v>45078</v>
+        <v>45047</v>
       </c>
       <c r="D32" s="1">
         <v>45108</v>
@@ -1574,10 +1532,10 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="B33" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="C33" s="1">
         <v>45078</v>
@@ -1588,10 +1546,10 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="B34" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="C34" s="1">
         <v>45139</v>
@@ -1602,10 +1560,10 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="B35" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="C35" s="1">
         <v>44440</v>
@@ -1616,10 +1574,10 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="B36" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="C36" s="1">
         <v>44638</v>
@@ -1630,10 +1588,10 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="B37" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="C37" s="1">
         <v>44665</v>
@@ -1644,10 +1602,10 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="B38" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="C38" s="1">
         <v>44713</v>
@@ -1658,24 +1616,24 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="B39" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="C39" s="1">
         <v>44805</v>
       </c>
       <c r="D39" s="1">
-        <v>44896</v>
+        <v>44986</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="B40" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="C40" s="1">
         <v>45078</v>
@@ -1686,10 +1644,10 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="B41" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="C41" s="1">
         <v>45078</v>
@@ -1700,10 +1658,10 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="B42" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="C42" s="1">
         <v>45139</v>
@@ -1714,477 +1672,295 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="B43" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="C43" s="1">
         <v>44075</v>
       </c>
       <c r="D43" s="1">
-        <v>44682</v>
+        <v>45169</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="B44" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="C44" s="1">
-        <v>44136</v>
+        <v>44440</v>
       </c>
       <c r="D44" s="1">
-        <v>44713</v>
+        <v>44470</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="B45" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="C45" s="1">
+        <v>44501</v>
+      </c>
+      <c r="D45" s="1">
         <v>44593</v>
-      </c>
-      <c r="D45" s="1">
-        <v>44774</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="B46" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="C46" s="1">
-        <v>44682</v>
+        <v>44927</v>
       </c>
       <c r="D46" s="1">
-        <v>44835</v>
+        <v>45170</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="B47" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="C47" s="1">
-        <v>44835</v>
+        <v>45017</v>
       </c>
       <c r="D47" s="1">
-        <v>44986</v>
+        <v>45047</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="B48" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="C48" s="1">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="D48" s="1">
-        <v>45017</v>
+        <v>45047</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="B49" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="C49" s="1">
-        <v>45017</v>
+        <v>44075</v>
       </c>
       <c r="D49" s="1">
-        <v>45078</v>
+        <v>44105</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="B50" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="C50" s="1">
-        <v>45078</v>
+        <v>44075</v>
       </c>
       <c r="D50" s="1">
-        <v>45139</v>
+        <v>44105</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="B51" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="C51" s="1">
-        <v>44075</v>
+        <v>44317</v>
       </c>
       <c r="D51" s="1">
-        <v>45169</v>
+        <v>44440</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="B52" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="C52" s="1">
-        <v>44440</v>
+        <v>44409</v>
       </c>
       <c r="D52" s="1">
-        <v>44470</v>
+        <v>44501</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="B53" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="C53" s="1">
-        <v>44501</v>
+        <v>44774</v>
       </c>
       <c r="D53" s="1">
-        <v>44593</v>
+        <v>44835</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="B54" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C54" s="1">
-        <v>44927</v>
+        <v>44958</v>
       </c>
       <c r="D54" s="1">
-        <v>45170</v>
+        <v>44986</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="B55" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="C55" s="1">
-        <v>45017</v>
+        <v>44958</v>
       </c>
       <c r="D55" s="1">
-        <v>45047</v>
+        <v>44986</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="B56" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="C56" s="1">
-        <v>45017</v>
+        <v>44986</v>
       </c>
       <c r="D56" s="1">
-        <v>45047</v>
+        <v>45078</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="B57" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="C57" s="1">
-        <v>44348</v>
+        <v>44927</v>
       </c>
       <c r="D57" s="1">
-        <v>44409</v>
+        <v>45078</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="B58" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="C58" s="1">
-        <v>44409</v>
+        <v>45078</v>
       </c>
       <c r="D58" s="1">
-        <v>44440</v>
+        <v>45139</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="B59" t="s">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="C59" s="1">
-        <v>44409</v>
+        <v>45170</v>
       </c>
       <c r="D59" s="1">
-        <v>44562</v>
+        <v>45170</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="B60" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="C60" s="1">
-        <v>44958</v>
+        <v>44818</v>
       </c>
       <c r="D60" s="1">
-        <v>45017</v>
+        <v>44835</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="B61" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="C61" s="1">
-        <v>44958</v>
+        <v>44835</v>
       </c>
       <c r="D61" s="1">
-        <v>45017</v>
+        <v>44836</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="B62" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="C62" s="1">
-        <v>44075</v>
+        <v>44852</v>
       </c>
       <c r="D62" s="1">
-        <v>44105</v>
+        <v>44858</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="B63" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="C63" s="1">
-        <v>44075</v>
+        <v>44896</v>
       </c>
       <c r="D63" s="1">
-        <v>44105</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>80</v>
-      </c>
-      <c r="B64" t="s">
-        <v>60</v>
-      </c>
-      <c r="C64" s="1">
-        <v>44317</v>
-      </c>
-      <c r="D64" s="1">
-        <v>44440</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>80</v>
-      </c>
-      <c r="B65" t="s">
-        <v>68</v>
-      </c>
-      <c r="C65" s="1">
-        <v>44409</v>
-      </c>
-      <c r="D65" s="1">
-        <v>44501</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>80</v>
-      </c>
-      <c r="B66" t="s">
-        <v>61</v>
-      </c>
-      <c r="C66" s="1">
-        <v>44774</v>
-      </c>
-      <c r="D66" s="1">
-        <v>44835</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>80</v>
-      </c>
-      <c r="B67" t="s">
-        <v>62</v>
-      </c>
-      <c r="C67" s="1">
-        <v>44958</v>
-      </c>
-      <c r="D67" s="1">
-        <v>44986</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>80</v>
-      </c>
-      <c r="B68" t="s">
-        <v>63</v>
-      </c>
-      <c r="C68" s="1">
-        <v>44958</v>
-      </c>
-      <c r="D68" s="1">
-        <v>44986</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>80</v>
-      </c>
-      <c r="B69" t="s">
-        <v>64</v>
-      </c>
-      <c r="C69" s="1">
-        <v>44986</v>
-      </c>
-      <c r="D69" s="1">
-        <v>45078</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>80</v>
-      </c>
-      <c r="B70" t="s">
-        <v>65</v>
-      </c>
-      <c r="C70" s="1">
-        <v>44927</v>
-      </c>
-      <c r="D70" s="1">
-        <v>45078</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>80</v>
-      </c>
-      <c r="B71" t="s">
-        <v>66</v>
-      </c>
-      <c r="C71" s="1">
-        <v>45078</v>
-      </c>
-      <c r="D71" s="1">
-        <v>45139</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>80</v>
-      </c>
-      <c r="B72" t="s">
-        <v>67</v>
-      </c>
-      <c r="C72" s="1">
-        <v>45170</v>
-      </c>
-      <c r="D72" s="1">
-        <v>45170</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>81</v>
-      </c>
-      <c r="B73" t="s">
-        <v>69</v>
-      </c>
-      <c r="C73" s="1">
-        <v>44818</v>
-      </c>
-      <c r="D73" s="1">
-        <v>44835</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>81</v>
-      </c>
-      <c r="B74" t="s">
-        <v>70</v>
-      </c>
-      <c r="C74" s="1">
-        <v>44835</v>
-      </c>
-      <c r="D74" s="1">
-        <v>44836</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>81</v>
-      </c>
-      <c r="B75" t="s">
-        <v>71</v>
-      </c>
-      <c r="C75" s="1">
-        <v>44852</v>
-      </c>
-      <c r="D75" s="1">
-        <v>44858</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>81</v>
-      </c>
-      <c r="B76" t="s">
-        <v>72</v>
-      </c>
-      <c r="C76" s="1">
-        <v>44896</v>
-      </c>
-      <c r="D76" s="1">
         <v>44986</v>
       </c>
     </row>
@@ -2198,8 +1974,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:XFD23"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2328,268 +2104,271 @@
         <v>6</v>
       </c>
       <c r="C10" s="1">
-        <v>44197</v>
+        <v>44956</v>
       </c>
       <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="1">
-        <v>44177</v>
+        <v>44197</v>
       </c>
       <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
       <c r="C12" s="1">
-        <v>44228</v>
+        <v>44177</v>
       </c>
       <c r="J12" s="1"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
       <c r="C13" s="1">
-        <v>44256</v>
+        <v>44228</v>
       </c>
       <c r="J13" s="1"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
       </c>
       <c r="C14" s="1">
-        <v>44317</v>
+        <v>44256</v>
       </c>
       <c r="J14" s="1"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="B15" t="s">
         <v>6</v>
       </c>
       <c r="C15" s="1">
-        <v>44392</v>
+        <v>44317</v>
       </c>
       <c r="J15" s="1"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="B16" t="s">
         <v>6</v>
       </c>
       <c r="C16" s="1">
-        <v>44409</v>
+        <v>44392</v>
       </c>
       <c r="J16" s="1"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
       </c>
       <c r="C17" s="1">
-        <v>44501</v>
+        <v>44409</v>
       </c>
       <c r="J17" s="1"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
       </c>
       <c r="C18" s="1">
-        <v>44593</v>
+        <v>44501</v>
       </c>
       <c r="J18" s="1"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="B19" t="s">
         <v>6</v>
       </c>
       <c r="C19" s="1">
-        <v>44682</v>
+        <v>44593</v>
       </c>
       <c r="J19" s="1"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="B20" t="s">
         <v>6</v>
       </c>
       <c r="C20" s="1">
-        <v>44774</v>
+        <v>44682</v>
       </c>
       <c r="J20" s="1"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="B21" t="s">
         <v>6</v>
       </c>
       <c r="C21" s="1">
-        <v>44866</v>
+        <v>44774</v>
       </c>
       <c r="J21" s="1"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="B22" t="s">
         <v>6</v>
       </c>
       <c r="C22" s="1">
-        <v>44531</v>
+        <v>44866</v>
       </c>
       <c r="J22" s="1"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B23" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C23" s="1">
-        <v>44740</v>
+        <v>44958</v>
       </c>
       <c r="J23" s="1"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="B24" t="s">
         <v>6</v>
       </c>
       <c r="C24" s="1">
-        <v>44653</v>
+        <v>44531</v>
       </c>
       <c r="J24" s="1"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B25" t="s">
         <v>6</v>
       </c>
       <c r="C25" s="1">
-        <v>44652</v>
+        <v>44740</v>
       </c>
       <c r="J25" s="1"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B26" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C26" s="1">
-        <v>44805</v>
+        <v>44972</v>
       </c>
       <c r="J26" s="1"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="B27" t="s">
         <v>6</v>
       </c>
       <c r="C27" s="1">
-        <v>44531</v>
+        <v>44653</v>
       </c>
       <c r="J27" s="1"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="B28" t="s">
         <v>6</v>
       </c>
       <c r="C28" s="1">
-        <v>44653</v>
+        <v>44652</v>
       </c>
       <c r="J28" s="1"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B29" t="s">
         <v>6</v>
       </c>
       <c r="C29" s="1">
-        <v>44470</v>
-      </c>
+        <v>44805</v>
+      </c>
+      <c r="J29" s="1"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B30" t="s">
         <v>6</v>
       </c>
       <c r="C30" s="1">
-        <v>44593</v>
-      </c>
+        <v>44531</v>
+      </c>
+      <c r="J30" s="1"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B31" t="s">
         <v>6</v>
       </c>
       <c r="C31" s="1">
-        <v>44409</v>
-      </c>
+        <v>44653</v>
+      </c>
+      <c r="J31" s="1"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B32" t="s">
         <v>6</v>
       </c>
       <c r="C32" s="1">
-        <v>44440</v>
+        <v>44470</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -2600,12 +2379,12 @@
         <v>6</v>
       </c>
       <c r="C33" s="1">
-        <v>44562</v>
+        <v>44593</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="B34" t="s">
         <v>6</v>
@@ -2616,7 +2395,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="B35" t="s">
         <v>6</v>
@@ -2627,7 +2406,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="B36" t="s">
         <v>6</v>
@@ -2638,7 +2417,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="B37" t="s">
         <v>6</v>
@@ -2649,7 +2428,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>69</v>
+        <v>27</v>
       </c>
       <c r="B38" t="s">
         <v>6</v>
@@ -2660,7 +2439,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="B39" t="s">
         <v>6</v>
@@ -2671,7 +2450,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="B40" t="s">
         <v>6</v>
@@ -2681,8 +2460,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C28">
-    <sortCondition ref="C2:C28"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C31">
+    <sortCondition ref="C2:C31"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/project_timelines.xlsx
+++ b/data/project_timelines.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/david/r_repositories/phd_project/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{268DDDFF-E9D8-6C42-80B6-8E350747EB09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3C7384F-F9A0-4543-B80B-AE74756E4200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="project_timelines" sheetId="1" r:id="rId1"/>
@@ -206,25 +206,25 @@
     <t>5.6. Discussion draft</t>
   </si>
   <si>
-    <t>WP1 - Chapter 2 (Scoping review)</t>
-  </si>
-  <si>
-    <t>WP2 - Rodent trapping</t>
-  </si>
-  <si>
-    <t>WP3 - Chapter 3 (Rodent distribution)</t>
-  </si>
-  <si>
-    <t>WP4 - Chapter 4 (Rodent networks and transmission)</t>
-  </si>
-  <si>
-    <t>WP5 - PhD timeline</t>
-  </si>
-  <si>
-    <t>WP6 - LIPS development</t>
-  </si>
-  <si>
-    <t>WP7 - Lassa underreporting</t>
+    <t>Chapter 2 (Scoping review)</t>
+  </si>
+  <si>
+    <t>Rodent trapping</t>
+  </si>
+  <si>
+    <t>Chapter 3 (Rodent distribution)</t>
+  </si>
+  <si>
+    <t>Chapter 4 (Rodent networks and transmission)</t>
+  </si>
+  <si>
+    <t>PhD timeline</t>
+  </si>
+  <si>
+    <t>LIPS development</t>
+  </si>
+  <si>
+    <t>Lassa underreporting</t>
   </si>
 </sst>
 </file>
@@ -1071,8 +1071,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" zoomScale="102" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:B24"/>
+    <sheetView tabSelected="1" zoomScale="102" workbookViewId="0">
+      <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1974,7 +1974,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
